--- a/sample-data.xlsx
+++ b/sample-data.xlsx
@@ -152,6 +152,14 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyProtection="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" applyProtection="1" applyNumberFormat="1" xfId="0">
+      <alignment wrapText="0" vertical="center" horizontal="general"/>
+      <protection locked="1" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -230,9 +238,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0" rightToLeft="false">
       <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -241,7 +249,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="12.83"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customFormat="false" ht="12.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -252,7 +260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customFormat="false" ht="12.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="2">
       <c r="A2" s="2" t="n">
         <v>1</v>
       </c>
@@ -263,7 +271,7 @@
         <v>44348</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customFormat="false" ht="12.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="3">
       <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
@@ -274,15 +282,30 @@
         <v>44349</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row customFormat="false" ht="12.8" hidden="false" customHeight="false" collapsed="false" outlineLevel="0" r="4">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>update_by_node</t>
+        </is>
       </c>
       <c r="C4" s="3" t="n">
         <v>44350</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>insert_by_node</t>
+        </is>
+      </c>
+      <c r="C5" s="5">
+        <v>44366.5318055556</v>
       </c>
     </row>
   </sheetData>
